--- a/CpS230/GroupProject/Music.xlsx
+++ b/CpS230/GroupProject/Music.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jay\source\repos\Sandbox\CpS230\GroupProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10F535C-0250-4B05-8D91-8300A28C0D07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC16C9-E6C4-4F01-B6FB-2F07435AC3F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AB935D0-B70F-4CF0-BAE7-AC0C61282E54}"/>
+    <workbookView xWindow="1530" yWindow="645" windowWidth="25290" windowHeight="14955" xr2:uid="{0AB935D0-B70F-4CF0-BAE7-AC0C61282E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>music.playTone(330, music.beat(BeatFraction.Whole))</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>JS Instruction</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>mul</t>
   </si>
 </sst>
 </file>
@@ -170,13 +177,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,741 +501,1923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291A331-AA62-42F3-8333-4873F6A4EE4E}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>IF(OR($A2="music.stopAllSounds()", LEFT($A2, 10)="music.rest"),"10", ROUND($F$3/MID($A2,16,3), 0))&amp;","</f>
+      <c r="B2" s="4">
+        <f>IF($A2="music.stopAllSounds()", 1, VLOOKUP(IF(LEFT($A2, 10)="music.rest", MID($A2, 36, LEN($A2)-37), MID($A2, 45, LEN($A2) - 46)), $F$6:$G$9, 2, FALSE))</f>
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f xml:space="preserve"> IF(OR($A2="music.stopAllSounds()", LEFT($A2, 10)="music.rest"),"1", ROUND($G$4/MID($A2,16,3), 0))&amp;","</f>
         <v>3616,</v>
       </c>
+      <c r="D2" t="str">
+        <f>IF($A2="music.stopAllSounds()", "0", $I$2*B2)&amp;","</f>
+        <v>8,</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(60*1000/G2, 0)</f>
+        <v>109</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(H2/55, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B51" si="0">IF($A3="music.stopAllSounds()", 1, VLOOKUP(IF(LEFT($A3, 10)="music.rest", MID($A3, 36, LEN($A3)-37), MID($A3, 45, LEN($A3) - 46)), $F$6:$G$9, 2, FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C51" si="1" xml:space="preserve"> IF(OR($A3="music.stopAllSounds()", LEFT($A3, 10)="music.rest"),"1", ROUND($G$4/MID($A3,16,3), 0))&amp;","</f>
+        <v>4831,</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D51" si="2">IF($A3="music.stopAllSounds()", "0", $I$2*B3)&amp;","</f>
+        <v>4,</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(60*1000/G2/G3, 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1193180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>2,</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>2,</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT(C2:C53)</f>
+        <v>3616,4831,4554,4058,3616,4058,4554,4831,5424,1,5424,4554,3616,4058,4554,4831,1,4831,4554,4058,3616,4554,5424,1,5424,1,1,4058,4058,3419,2712,3044,3419,3616,3616,4554,3616,4058,4554,4831,1,4831,4554,4058,3616,4554,5424,1,5424,1,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT(D2:D53)</f>
+        <v>8,4,4,4,2,2,4,4,8,0,4,4,8,4,4,8,0,4,4,8,8,8,8,0,16,0,2,4,4,4,8,4,4,8,4,4,8,4,4,8,0,4,4,8,8,8,8,0,16,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>16,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>3419,</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>2712,</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>3044,</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>3419,</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>4058,</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>5424,</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>16,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A72DA6-EA95-4BE6-9A67-4B5564BC311E}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>IF($A2="music.stopAllSounds()", 1, VLOOKUP(IF(LEFT($A2, 10)="music.rest", MID($A2, 36, LEN($A2)-37), MID($A2, 45, LEN($A2) - 46)), $F$6:$G$9, 2, FALSE))</f>
+        <v>4</v>
+      </c>
       <c r="C2" t="str">
-        <f>IF($A2="music.stopAllSounds()", "10", ROUND(VLOOKUP(IF(LEFT($A2, 10)="music.rest", MID($A2, 36, LEN($A2)-37), MID($A2, 45, LEN($A2) - 46)), $E$5:$F$8, 2, FALSE)*$G$2, 0))&amp;","</f>
-        <v>414,</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <f xml:space="preserve"> REPT(IF(OR($A2="music.stopAllSounds()", LEFT($A2, 10)="music.rest"),"1", ROUND($G$4/MID($A2,16,3), 0))&amp;",", B2*$G$3)</f>
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D2" t="str">
+        <f>REPT(IF($A2="music.stopAllSounds()", "10", $H$3)&amp;",", B2*$G$3)</f>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>145*4</f>
         <v>580</v>
       </c>
-      <c r="G2">
-        <f>60*1000/F2</f>
-        <v>103.44827586206897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>ROUND(60*1000/G2, 0)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B51" si="0">IF(OR($A3="music.stopAllSounds()", LEFT($A3, 10)="music.rest"),"1", ROUND($F$3/MID($A3,16,3), 0))&amp;","</f>
-        <v>4831,</v>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B51" si="0">IF($A3="music.stopAllSounds()", 1, VLOOKUP(IF(LEFT($A3, 10)="music.rest", MID($A3, 36, LEN($A3)-37), MID($A3, 45, LEN($A3) - 46)), $F$6:$G$9, 2, FALSE))</f>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C51" si="1">IF($A3="music.stopAllSounds()", "10", ROUND(VLOOKUP(IF(LEFT($A3, 10)="music.rest", MID($A3, 36, LEN($A3)-37), MID($A3, 45, LEN($A3) - 46)), $E$5:$F$8, 2, FALSE)*$G$2, 0))&amp;","</f>
-        <v>207,</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <f t="shared" ref="C3:C51" si="1" xml:space="preserve"> REPT(IF(OR($A3="music.stopAllSounds()", LEFT($A3, 10)="music.rest"),"1", ROUND($G$4/MID($A3,16,3), 0))&amp;",", B3*$G$3)</f>
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D51" si="2">REPT(IF($A3="music.stopAllSounds()", "10", $H$3)&amp;",", B3*$G$3)</f>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(60*1000/G2/G3, 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>1193180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>103,</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>103,</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>4831,</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT(B2:B53)</f>
-        <v>3616,4831,4554,4058,3616,4058,4554,4831,5424,1,5424,4554,3616,4058,4554,4831,1,4831,4554,4058,3616,4554,5424,1,5424,1,1,4058,4058,3419,2712,3044,3419,3616,3616,4554,3616,4058,4554,4831,1,4831,4554,4058,3616,4554,5424,1,5424,1,0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="str">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="str">
         <f>_xlfn.CONCAT(C2:C53)</f>
-        <v>414,207,207,207,103,103,207,207,414,10,207,207,414,207,207,414,10,207,207,414,414,414,414,10,828,10,103,207,207,207,414,207,207,414,207,207,414,207,207,414,10,207,207,414,414,414,414,10,828,10,0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,3616,3616,3616,3616,3616,4058,4058,4058,4058,4058,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,1,1,1,1,1,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,1,1,1,1,1,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,1,1,1,1,1,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,1,1,1,1,1,1,1,1,1,1,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,3419,3419,3419,3419,3419,3419,3419,3419,3419,3419,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,3044,3044,3044,3044,3044,3044,3044,3044,3044,3044,3419,3419,3419,3419,3419,3419,3419,3419,3419,3419,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,1,1,1,1,1,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,1,1,1,1,1,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,1,1,1,1,1,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT(D2:D53)</f>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,10,10,10,10,10,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>4831,</v>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>4831,</v>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>828,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>103,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>3419,</v>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3419,3419,3419,3419,3419,3419,3419,3419,3419,3419,</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>2712,</v>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,2712,</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>3044,</v>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3044,3044,3044,3044,3044,3044,3044,3044,3044,3044,</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>3419,</v>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3419,3419,3419,3419,3419,3419,3419,3419,3419,3419,</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B40" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>4831,</v>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>4831,</v>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4831,4831,4831,4831,4831,4831,4831,4831,4831,4831,</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>207,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>4058,</v>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,4058,</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>3616,</v>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,3616,</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>4554,</v>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,4554,</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>414,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>5424,</v>
+      <c r="B50" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>828,</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,5424,</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,21,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>1,</v>
+      <c r="B51" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>10,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
+        <v>1,1,1,1,1,</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>10,10,10,10,10,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>0</v>
       </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>